--- a/SkillEval/public/templates/TurmaAlunos.xlsx
+++ b/SkillEval/public/templates/TurmaAlunos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egcp0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AAAAA PROJ FINAL\SkillEval\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DBAC6-B396-43CD-A30B-77242916C80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2859A-A217-4DE3-A270-11566AAC3826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA4CCA1C-7769-438B-A3E5-BE11D8D7799E}"/>
+    <workbookView xWindow="-27165" yWindow="1215" windowWidth="25800" windowHeight="13530" activeTab="1" xr2:uid="{DA4CCA1C-7769-438B-A3E5-BE11D8D7799E}"/>
   </bookViews>
   <sheets>
     <sheet name="Turma" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BA464-73A9-4A04-9B5C-AD5DEE998106}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8C5650-393E-492C-8478-ED7F16DD1B36}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
